--- a/biology/Zoologie/Granila_paseas/Granila_paseas.xlsx
+++ b/biology/Zoologie/Granila_paseas/Granila_paseas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Granila paseas est une espèce néotropicale de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 Elle est l'unique représentante du genre monotypique Granila.
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Granila paseas a été décrite par le naturaliste britannique William Chapman Hewitson en 1857, sous le nom initial de Pyrrhopyga paseas[1].
-Le genre Granila a quant à lui été décrit en 1903 par le naturaliste français Paul Mabille[1].
-L'espèce porte en anglais le nom vernaculaire de paseas skipper[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Granila paseas a été décrite par le naturaliste britannique William Chapman Hewitson en 1857, sous le nom initial de Pyrrhopyga paseas.
+Le genre Granila a quant à lui été décrit en 1903 par le naturaliste français Paul Mabille.
+L'espèce porte en anglais le nom vernaculaire de paseas skipper.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,12 +587,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Granila paseas, sur Wikimedia CommonsGranila, sur Wikimedia CommonsGranila paseas, sur WikispeciesGranila, sur Wikispecies
-Granila paseas est présente dans le Sud-Est du Brésil et au Paraguay[2].
+Granila paseas est présente dans le Sud-Est du Brésil et au Paraguay.
 </t>
         </is>
       </c>
